--- a/files/menu_prepared.xlsx
+++ b/files/menu_prepared.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>Баббл ти/шейки</t>
   </si>
@@ -355,14 +356,30 @@
   </si>
   <si>
     <t>карта</t>
+  </si>
+  <si>
+    <t>на месяц</t>
+  </si>
+  <si>
+    <t>в день</t>
+  </si>
+  <si>
+    <t>будни</t>
+  </si>
+  <si>
+    <t>выхдн</t>
+  </si>
+  <si>
+    <t>пятн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00&quot;р.&quot;;[Red]\-#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -815,7 +832,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -858,13 +875,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -906,6 +926,7 @@
     <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Финансовый" xfId="42" builtinId="3"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1186,36 +1207,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <v>42841</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2">
+        <v>42842</v>
+      </c>
+      <c r="G1" s="2">
+        <v>42843</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E2" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -1223,10 +1258,16 @@
         <v>270</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -1234,15 +1275,18 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1294,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1302,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1266,15 +1310,18 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1329,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1337,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1345,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -1306,12 +1353,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +1366,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -1327,18 +1374,30 @@
         <v>290</v>
       </c>
       <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -1348,24 +1407,39 @@
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
@@ -1373,7 +1447,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -1392,20 +1466,23 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -1413,7 +1490,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>24</v>
       </c>
@@ -1421,7 +1498,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -1429,7 +1506,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -1437,20 +1514,26 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -1458,7 +1541,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -1466,20 +1549,23 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>33</v>
       </c>
@@ -1487,7 +1573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -1495,7 +1581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>35</v>
       </c>
@@ -1503,7 +1589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>36</v>
       </c>
@@ -1511,7 +1597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -1519,7 +1605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -1527,7 +1613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>39</v>
       </c>
@@ -1535,7 +1621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>40</v>
       </c>
@@ -1543,7 +1629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -1551,7 +1637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -1559,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -1689,20 +1775,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>60</v>
       </c>
       <c r="D66" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>61</v>
       </c>
@@ -1710,10 +1805,16 @@
         <v>150</v>
       </c>
       <c r="E67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>62</v>
       </c>
@@ -1721,7 +1822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>63</v>
       </c>
@@ -1729,7 +1830,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>64</v>
       </c>
@@ -1737,7 +1838,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>65</v>
       </c>
@@ -1745,7 +1846,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>66</v>
       </c>
@@ -1753,12 +1854,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>68</v>
       </c>
@@ -1766,7 +1867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>69</v>
       </c>
@@ -1774,7 +1875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>70</v>
       </c>
@@ -1782,7 +1883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>71</v>
       </c>
@@ -1790,7 +1891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>72</v>
       </c>
@@ -1798,7 +1899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>73</v>
       </c>
@@ -1806,7 +1907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>74</v>
       </c>
@@ -1814,7 +1915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>75</v>
       </c>
@@ -1822,17 +1923,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>77</v>
       </c>
@@ -1840,18 +1941,27 @@
         <v>145</v>
       </c>
       <c r="E84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>78</v>
       </c>
       <c r="D85" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>79</v>
       </c>
@@ -1859,7 +1969,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>80</v>
       </c>
@@ -1867,23 +1977,38 @@
         <v>220</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>82</v>
       </c>
       <c r="D89" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>83</v>
       </c>
@@ -1891,7 +2016,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>84</v>
       </c>
@@ -1901,8 +2026,14 @@
       <c r="E91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>85</v>
       </c>
@@ -1910,7 +2041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>86</v>
       </c>
@@ -1918,20 +2049,26 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>87</v>
       </c>
       <c r="D94" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>89</v>
       </c>
@@ -1939,7 +2076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>90</v>
       </c>
@@ -1947,7 +2084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>91</v>
       </c>
@@ -1955,17 +2092,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>94</v>
       </c>
@@ -1973,7 +2110,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>95</v>
       </c>
@@ -1981,15 +2118,18 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>96</v>
       </c>
       <c r="D103" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>97</v>
       </c>
@@ -1997,7 +2137,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>98</v>
       </c>
@@ -2005,7 +2145,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>99</v>
       </c>
@@ -2013,7 +2153,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>100</v>
       </c>
@@ -2021,7 +2161,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>101</v>
       </c>
@@ -2029,12 +2169,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>103</v>
       </c>
@@ -2042,7 +2182,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>104</v>
       </c>
@@ -2050,7 +2190,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>105</v>
       </c>
@@ -2078,15 +2218,15 @@
       </c>
       <c r="E115">
         <f>SUMPRODUCT($D$5:$D$113,E5:E113)</f>
-        <v>3085</v>
+        <v>7970</v>
       </c>
       <c r="F115">
         <f t="shared" ref="F115:O115" si="0">SUMPRODUCT($D$5:$D$113,F5:F113)</f>
-        <v>0</v>
+        <v>5820</v>
       </c>
       <c r="G115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6250</v>
       </c>
       <c r="H115">
         <f t="shared" si="0"/>
@@ -2157,6 +2297,109 @@
       </c>
       <c r="O116">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="3">
+        <f>D5/30</f>
+        <v>9333.3333333333339</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D7*0.7</f>
+        <v>6533.333333333333</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <f>D9*E9</f>
+        <v>26133.333333333332</v>
+      </c>
+      <c r="G9" s="4">
+        <f>F9/7*30</f>
+        <v>111999.99999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D7*1.2</f>
+        <v>11200</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:F11" si="0">D10*E10</f>
+        <v>11200</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" ref="G10:G11" si="1">F10/7*30</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D7*1.4</f>
+        <v>13066.666666666666</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>26133.333333333332</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>111999.99999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <f>SUM(G9:G11)</f>
+        <v>272000</v>
       </c>
     </row>
   </sheetData>

--- a/files/menu_prepared.xlsx
+++ b/files/menu_prepared.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
   <si>
     <t>Баббл ти/шейки</t>
   </si>
@@ -1205,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,7 @@
     <col min="5" max="20" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <v>42841</v>
       </c>
@@ -1228,8 +1228,14 @@
       <c r="G1" s="2">
         <v>42843</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2">
+        <v>42844</v>
+      </c>
+      <c r="I1" s="2">
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E2" s="2" t="s">
         <v>108</v>
       </c>
@@ -1239,18 +1245,24 @@
       <c r="G2" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -1266,16 +1278,25 @@
       <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>325</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -1294,15 +1315,18 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1334,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1321,23 +1345,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1375,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -1353,12 +1383,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>13</v>
       </c>
@@ -1366,7 +1396,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -1379,8 +1409,11 @@
       <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -1396,8 +1429,11 @@
       <c r="G19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -1410,8 +1446,11 @@
       <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>107</v>
       </c>
@@ -1422,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1477,14 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1492,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -1458,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -1466,12 +1511,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -1482,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -1490,7 +1535,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>24</v>
       </c>
@@ -1498,7 +1543,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -1506,7 +1551,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -1514,12 +1559,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>28</v>
       </c>
@@ -1532,24 +1577,36 @@
       <c r="G33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>31</v>
       </c>
@@ -1559,13 +1616,16 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>33</v>
       </c>
@@ -1573,7 +1633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -1581,7 +1641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>35</v>
       </c>
@@ -1589,7 +1649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>36</v>
       </c>
@@ -1597,7 +1657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -1605,7 +1665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -1613,7 +1673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>39</v>
       </c>
@@ -1621,7 +1681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>40</v>
       </c>
@@ -1629,7 +1689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -1637,7 +1697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -1645,7 +1705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -1775,12 +1835,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>60</v>
       </c>
@@ -1796,8 +1856,14 @@
       <c r="G66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>61</v>
       </c>
@@ -1813,8 +1879,14 @@
       <c r="G67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>62</v>
       </c>
@@ -1822,7 +1894,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>63</v>
       </c>
@@ -1830,7 +1902,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>64</v>
       </c>
@@ -1838,7 +1910,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>65</v>
       </c>
@@ -1846,7 +1918,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>66</v>
       </c>
@@ -1854,12 +1926,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>68</v>
       </c>
@@ -1867,7 +1939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>69</v>
       </c>
@@ -1875,7 +1947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>70</v>
       </c>
@@ -1883,7 +1955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>71</v>
       </c>
@@ -1891,7 +1963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>72</v>
       </c>
@@ -1899,7 +1971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>73</v>
       </c>
@@ -1907,7 +1979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>74</v>
       </c>
@@ -1915,7 +1987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>75</v>
       </c>
@@ -1923,17 +1995,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>77</v>
       </c>
@@ -1949,8 +2021,14 @@
       <c r="G84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>78</v>
       </c>
@@ -1960,8 +2038,11 @@
       <c r="F85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>79</v>
       </c>
@@ -1969,15 +2050,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>80</v>
       </c>
       <c r="D87" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>81</v>
       </c>
@@ -1990,8 +2074,11 @@
       <c r="G88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>82</v>
       </c>
@@ -2007,8 +2094,11 @@
       <c r="G89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>83</v>
       </c>
@@ -2016,7 +2106,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>84</v>
       </c>
@@ -2032,8 +2122,14 @@
       <c r="G91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>85</v>
       </c>
@@ -2041,7 +2137,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>86</v>
       </c>
@@ -2049,7 +2145,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>87</v>
       </c>
@@ -2062,13 +2158,19 @@
       <c r="F94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>89</v>
       </c>
@@ -2076,7 +2178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>90</v>
       </c>
@@ -2084,7 +2186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>91</v>
       </c>
@@ -2092,25 +2194,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>94</v>
       </c>
       <c r="D101" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>95</v>
       </c>
@@ -2118,7 +2223,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>96</v>
       </c>
@@ -2128,8 +2233,11 @@
       <c r="F103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>97</v>
       </c>
@@ -2137,7 +2245,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>98</v>
       </c>
@@ -2145,7 +2253,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>99</v>
       </c>
@@ -2153,28 +2261,34 @@
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>100</v>
       </c>
       <c r="D107" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>101</v>
       </c>
       <c r="D108" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>103</v>
       </c>
@@ -2182,7 +2296,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>104</v>
       </c>
@@ -2190,7 +2304,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>105</v>
       </c>
@@ -2230,11 +2344,11 @@
       </c>
       <c r="H115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6505</v>
       </c>
       <c r="I115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6295</v>
       </c>
       <c r="J115">
         <f t="shared" si="0"/>
@@ -2278,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -2297,6 +2411,18 @@
       </c>
       <c r="O116">
         <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f>SUM(F115:I115)</f>
+        <v>24870</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f>I123/4</f>
+        <v>6217.5</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2435,7 @@
   <dimension ref="C5:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/menu_prepared.xlsx
+++ b/files/menu_prepared.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>Баббл ти/шейки</t>
   </si>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,7 @@
     <col min="5" max="20" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <v>42841</v>
       </c>
@@ -1234,8 +1234,11 @@
       <c r="I1" s="2">
         <v>42845</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E2" s="2" t="s">
         <v>108</v>
       </c>
@@ -1251,18 +1254,21 @@
       <c r="I2" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -1284,8 +1290,11 @@
       <c r="I5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1304,11 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +1318,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1330,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1349,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1344,8 +1359,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1393,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -1383,12 +1401,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +1414,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -1449,8 +1467,11 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>107</v>
       </c>
@@ -1460,8 +1481,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -1484,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
@@ -1492,7 +1516,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -1502,8 +1526,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -1511,12 +1538,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -1527,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -1535,7 +1562,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1570,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -1551,7 +1578,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -1559,12 +1586,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>28</v>
       </c>
@@ -1583,8 +1610,11 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -1595,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -1605,8 +1635,11 @@
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>31</v>
       </c>
@@ -1619,13 +1652,16 @@
       <c r="H36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>33</v>
       </c>
@@ -1633,7 +1669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -1641,7 +1677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>35</v>
       </c>
@@ -1649,7 +1685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1693,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -1665,7 +1701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -1673,7 +1709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>39</v>
       </c>
@@ -1681,7 +1717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>40</v>
       </c>
@@ -1689,7 +1725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -1697,7 +1733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -1705,7 +1741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -1835,12 +1871,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>60</v>
       </c>
@@ -1862,8 +1898,11 @@
       <c r="I66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>61</v>
       </c>
@@ -1885,8 +1924,11 @@
       <c r="I67">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>62</v>
       </c>
@@ -1894,7 +1936,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>63</v>
       </c>
@@ -1902,7 +1944,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>64</v>
       </c>
@@ -1910,15 +1952,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>65</v>
       </c>
       <c r="D71" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>66</v>
       </c>
@@ -1926,12 +1971,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>68</v>
       </c>
@@ -1939,7 +1984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>69</v>
       </c>
@@ -1947,7 +1992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>70</v>
       </c>
@@ -1955,7 +2000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>71</v>
       </c>
@@ -1963,15 +2008,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>72</v>
       </c>
       <c r="D78" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>73</v>
       </c>
@@ -1979,7 +2027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>74</v>
       </c>
@@ -1987,7 +2035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>75</v>
       </c>
@@ -1995,17 +2043,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>77</v>
       </c>
@@ -2027,8 +2075,11 @@
       <c r="I84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>78</v>
       </c>
@@ -2042,15 +2093,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>79</v>
       </c>
       <c r="D86" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>80</v>
       </c>
@@ -2060,8 +2114,11 @@
       <c r="I87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>81</v>
       </c>
@@ -2078,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>82</v>
       </c>
@@ -2097,8 +2154,11 @@
       <c r="I89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>83</v>
       </c>
@@ -2106,7 +2166,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>84</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="I91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>85</v>
       </c>
@@ -2137,7 +2200,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>86</v>
       </c>
@@ -2145,7 +2208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>87</v>
       </c>
@@ -2164,13 +2227,16 @@
       <c r="I94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>89</v>
       </c>
@@ -2178,7 +2244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>90</v>
       </c>
@@ -2186,7 +2252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>91</v>
       </c>
@@ -2194,17 +2260,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>94</v>
       </c>
@@ -2215,15 +2281,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>95</v>
       </c>
       <c r="D102" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>96</v>
       </c>
@@ -2237,15 +2306,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>97</v>
       </c>
       <c r="D104" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>98</v>
       </c>
@@ -2253,7 +2325,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>99</v>
       </c>
@@ -2261,7 +2333,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>100</v>
       </c>
@@ -2271,8 +2343,11 @@
       <c r="I107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>101</v>
       </c>
@@ -2283,12 +2358,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>103</v>
       </c>
@@ -2296,7 +2371,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>104</v>
       </c>
@@ -2304,7 +2379,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>105</v>
       </c>
@@ -2352,7 +2427,7 @@
       </c>
       <c r="J115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8540</v>
       </c>
       <c r="K115">
         <f t="shared" si="0"/>
@@ -2395,7 +2470,7 @@
         <v>860</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>4690</v>
       </c>
       <c r="K116">
         <v>0</v>

--- a/files/menu_prepared.xlsx
+++ b/files/menu_prepared.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
   <si>
     <t>Баббл ти/шейки</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>пятн</t>
+  </si>
+  <si>
+    <t>Яна</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +718,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -832,7 +841,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -876,15 +885,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -924,6 +936,7 @@
     <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Процентный" xfId="43" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Финансовый" xfId="42" builtinId="3"/>
@@ -1205,10 +1218,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="J117" sqref="J117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,8 +1234,8 @@
     <col min="5" max="20" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E1" s="2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E1" s="5">
         <v>42841</v>
       </c>
       <c r="F1" s="2">
@@ -1237,9 +1253,36 @@
       <c r="J1" s="2">
         <v>42846</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="2" t="s">
+      <c r="K1" s="5">
+        <v>42847</v>
+      </c>
+      <c r="L1" s="5">
+        <v>42848</v>
+      </c>
+      <c r="M1" s="2">
+        <v>42849</v>
+      </c>
+      <c r="N1" s="2">
+        <v>42850</v>
+      </c>
+      <c r="O1" s="2">
+        <v>42851</v>
+      </c>
+      <c r="P1" s="2">
+        <v>42852</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>42853</v>
+      </c>
+      <c r="R1" s="5">
+        <v>42854</v>
+      </c>
+      <c r="S1" s="5">
+        <v>42855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
         <v>108</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1257,18 +1300,45 @@
       <c r="J2" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -1293,8 +1363,35 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1404,35 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -1321,16 +1445,34 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>325</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1340,8 +1482,23 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1506,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1362,8 +1519,23 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -1373,8 +1545,29 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -1385,36 +1578,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -1430,8 +1647,26 @@
       <c r="H18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -1450,8 +1685,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -1470,8 +1711,26 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>107</v>
       </c>
@@ -1484,8 +1743,23 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -1507,16 +1781,31 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -1529,21 +1818,39 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -1553,32 +1860,47 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -1586,12 +1908,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>28</v>
       </c>
@@ -1613,8 +1935,29 @@
       <c r="J33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -1624,8 +1967,29 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -1638,8 +2002,23 @@
       <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>31</v>
       </c>
@@ -1655,13 +2034,25 @@
       <c r="J36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>33</v>
       </c>
@@ -1669,7 +2060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +2068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +2076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +2084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +2092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -1709,7 +2100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>39</v>
       </c>
@@ -1717,7 +2108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>40</v>
       </c>
@@ -1725,7 +2116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -1733,7 +2124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -1741,15 +2132,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -1757,7 +2151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -1765,7 +2159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>46</v>
       </c>
@@ -1773,7 +2167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>47</v>
       </c>
@@ -1781,7 +2175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>48</v>
       </c>
@@ -1789,12 +2183,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>50</v>
       </c>
@@ -1802,7 +2196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>51</v>
       </c>
@@ -1810,7 +2204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>52</v>
       </c>
@@ -1818,7 +2212,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -1826,7 +2220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -1834,7 +2228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>55</v>
       </c>
@@ -1842,15 +2236,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>57</v>
       </c>
@@ -1858,7 +2261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>58</v>
       </c>
@@ -1866,17 +2269,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>60</v>
       </c>
@@ -1901,8 +2304,35 @@
       <c r="J66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>3</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66">
+        <v>6</v>
+      </c>
+      <c r="S66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>61</v>
       </c>
@@ -1927,16 +2357,58 @@
       <c r="J67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>6</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>4</v>
+      </c>
+      <c r="R67">
+        <v>3</v>
+      </c>
+      <c r="S67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>62</v>
       </c>
       <c r="D68" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>63</v>
       </c>
@@ -1944,15 +2416,27 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>64</v>
       </c>
       <c r="D70" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>65</v>
       </c>
@@ -1962,8 +2446,23 @@
       <c r="J71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>66</v>
       </c>
@@ -1971,12 +2470,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>68</v>
       </c>
@@ -1984,31 +2483,58 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>69</v>
       </c>
       <c r="D75" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>70</v>
       </c>
       <c r="D76" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>71</v>
       </c>
       <c r="D77" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>72</v>
       </c>
@@ -2018,42 +2544,66 @@
       <c r="J78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>73</v>
       </c>
       <c r="D79" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>74</v>
       </c>
       <c r="D80" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>75</v>
       </c>
       <c r="D81" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>77</v>
       </c>
@@ -2078,8 +2628,35 @@
       <c r="J84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84">
+        <v>2</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <v>4</v>
+      </c>
+      <c r="S84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>78</v>
       </c>
@@ -2092,8 +2669,23 @@
       <c r="H85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>79</v>
       </c>
@@ -2103,8 +2695,35 @@
       <c r="J86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>2</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>3</v>
+      </c>
+      <c r="S86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>80</v>
       </c>
@@ -2117,8 +2736,17 @@
       <c r="J87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>81</v>
       </c>
@@ -2134,8 +2762,23 @@
       <c r="I88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>82</v>
       </c>
@@ -2157,16 +2800,34 @@
       <c r="J89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>83</v>
       </c>
       <c r="D90" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>84</v>
       </c>
@@ -2191,16 +2852,43 @@
       <c r="J91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>85</v>
       </c>
       <c r="D92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>86</v>
       </c>
@@ -2208,7 +2896,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>87</v>
       </c>
@@ -2230,13 +2918,25 @@
       <c r="J94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>89</v>
       </c>
@@ -2244,7 +2944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>90</v>
       </c>
@@ -2252,7 +2952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>91</v>
       </c>
@@ -2260,17 +2960,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>94</v>
       </c>
@@ -2280,8 +2980,23 @@
       <c r="I101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>95</v>
       </c>
@@ -2291,8 +3006,23 @@
       <c r="J102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>2</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>96</v>
       </c>
@@ -2305,8 +3035,17 @@
       <c r="H103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>97</v>
       </c>
@@ -2316,24 +3055,48 @@
       <c r="J104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>98</v>
       </c>
       <c r="D105" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>99</v>
       </c>
       <c r="D106" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>100</v>
       </c>
@@ -2346,8 +3109,23 @@
       <c r="J107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>101</v>
       </c>
@@ -2357,13 +3135,19 @@
       <c r="H108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>103</v>
       </c>
@@ -2371,15 +3155,21 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>104</v>
       </c>
       <c r="D111" s="1">
         <v>295</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>105</v>
       </c>
@@ -2387,7 +3177,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>106</v>
       </c>
@@ -2395,13 +3185,13 @@
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>109</v>
       </c>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -2431,26 +3221,42 @@
       </c>
       <c r="K115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11380</v>
       </c>
       <c r="L115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="M115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5610</v>
       </c>
       <c r="N115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8120</v>
       </c>
       <c r="O115">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6850</v>
+      </c>
+      <c r="P115">
+        <f t="shared" ref="P115:S115" si="1">SUMPRODUCT($D$5:$D$113,P5:P113)</f>
+        <v>5610</v>
+      </c>
+      <c r="Q115">
+        <f>SUMPRODUCT($D$5:$D$113,Q5:Q113)</f>
+        <v>13080</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="1"/>
+        <v>16555</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="1"/>
+        <v>14205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -2461,40 +3267,78 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="I116">
-        <v>860</v>
+        <v>3265</v>
       </c>
       <c r="J116">
         <v>4690</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>3690</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>4250</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>3185</v>
       </c>
       <c r="O116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3220</v>
+      </c>
+      <c r="P116">
+        <v>2980</v>
+      </c>
+      <c r="Q116">
+        <v>5825</v>
+      </c>
+      <c r="R116">
+        <v>7850</v>
+      </c>
+      <c r="S116">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <f>SUM(F115:L115)</f>
+        <v>57490</v>
+      </c>
+      <c r="S120">
+        <f>SUM(M115:S115)</f>
+        <v>70030</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <f>L120*4</f>
+        <v>229960</v>
+      </c>
+      <c r="S121">
+        <f>S120*4</f>
+        <v>280120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S122" s="6">
+        <f>S121/L121</f>
+        <v>1.218124891285441</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I123">
         <f>SUM(F115:I115)</f>
         <v>24870</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I124">
         <f>I123/4</f>
         <v>6217.5</v>

--- a/files/menu_prepared.xlsx
+++ b/files/menu_prepared.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
   <si>
     <t>Баббл ти/шейки</t>
   </si>
@@ -374,6 +374,27 @@
   </si>
   <si>
     <t>Яна</t>
+  </si>
+  <si>
+    <t>Разное</t>
+  </si>
+  <si>
+    <t>Леденец на палочке</t>
+  </si>
+  <si>
+    <t>Стаканчик</t>
+  </si>
+  <si>
+    <t>Сахар</t>
+  </si>
+  <si>
+    <t>Трубочка</t>
+  </si>
+  <si>
+    <t>Люда</t>
+  </si>
+  <si>
+    <t>Иван</t>
   </si>
 </sst>
 </file>
@@ -538,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +745,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -887,7 +914,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -895,6 +922,8 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1218,23 +1247,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S124"/>
+  <dimension ref="A1:AS129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G117" sqref="G117"/>
+      <selection pane="bottomRight" activeCell="AA135" sqref="AA135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="5" max="20" width="10.42578125" customWidth="1"/>
+    <col min="5" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="45" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E1" s="5">
         <v>42841</v>
       </c>
@@ -1280,8 +1310,76 @@
       <c r="S1" s="5">
         <v>42855</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="5">
+        <v>42856</v>
+      </c>
+      <c r="U1" s="7">
+        <v>42857</v>
+      </c>
+      <c r="V1" s="7">
+        <v>42858</v>
+      </c>
+      <c r="W1" s="7">
+        <v>42859</v>
+      </c>
+      <c r="X1" s="7">
+        <v>42860</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>42861</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>42862</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>42863</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>42864</v>
+      </c>
+      <c r="AC1" s="7">
+        <v>42865</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>42866</v>
+      </c>
+      <c r="AE1" s="7">
+        <v>42867</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>42868</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>42869</v>
+      </c>
+      <c r="AH1" s="7">
+        <v>42870</v>
+      </c>
+      <c r="AI1" s="7">
+        <v>42871</v>
+      </c>
+      <c r="AJ1" s="7">
+        <v>42872</v>
+      </c>
+      <c r="AK1" s="7">
+        <v>42873</v>
+      </c>
+      <c r="AL1" s="7">
+        <v>42874</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>42875</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>42876</v>
+      </c>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E2" s="5" t="s">
         <v>108</v>
       </c>
@@ -1327,18 +1425,81 @@
       <c r="S2" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -1390,8 +1551,20 @@
       <c r="S5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -1431,8 +1604,17 @@
       <c r="S6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -1454,8 +1636,20 @@
       <c r="S7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -1472,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1497,16 +1691,43 @@
       <c r="S9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1534,8 +1755,20 @@
       <c r="S11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -1566,8 +1799,20 @@
       <c r="S12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -1577,8 +1822,14 @@
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -1588,8 +1839,17 @@
       <c r="Q14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -1605,8 +1865,23 @@
       <c r="R15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>13</v>
       </c>
@@ -1630,8 +1905,14 @@
       <c r="R17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -1665,8 +1946,20 @@
       <c r="S18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -1691,8 +1984,14 @@
       <c r="Q19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -1729,8 +2028,20 @@
       <c r="S20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>107</v>
       </c>
@@ -1758,8 +2069,14 @@
       <c r="S21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -1793,8 +2110,20 @@
       <c r="S22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
@@ -1805,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -1824,8 +2153,11 @@
       <c r="Q24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -1844,13 +2176,22 @@
       <c r="R25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -1864,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -1874,8 +2215,11 @@
       <c r="R28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -1899,8 +2243,11 @@
       <c r="S30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -1908,12 +2255,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>28</v>
       </c>
@@ -1956,8 +2303,23 @@
       <c r="S33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -1988,8 +2350,17 @@
       <c r="S34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -2017,8 +2388,17 @@
       <c r="S35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>31</v>
       </c>
@@ -2046,13 +2426,34 @@
       <c r="R36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+      <c r="X36">
+        <v>3</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>33</v>
       </c>
@@ -2060,7 +2461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>34</v>
       </c>
@@ -2068,7 +2469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>35</v>
       </c>
@@ -2076,7 +2477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>36</v>
       </c>
@@ -2084,7 +2485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -2092,7 +2493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -2100,7 +2501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>39</v>
       </c>
@@ -2108,7 +2509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>40</v>
       </c>
@@ -2116,7 +2517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>41</v>
       </c>
@@ -2124,7 +2525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -2132,7 +2533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -2143,15 +2544,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>44</v>
       </c>
       <c r="D49" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -2159,7 +2563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>46</v>
       </c>
@@ -2167,7 +2571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>47</v>
       </c>
@@ -2175,7 +2579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>48</v>
       </c>
@@ -2183,12 +2587,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>50</v>
       </c>
@@ -2196,7 +2600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>51</v>
       </c>
@@ -2204,7 +2608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>52</v>
       </c>
@@ -2212,7 +2616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -2220,7 +2624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -2228,7 +2632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>55</v>
       </c>
@@ -2236,7 +2640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>56</v>
       </c>
@@ -2253,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>57</v>
       </c>
@@ -2261,7 +2665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>58</v>
       </c>
@@ -2269,1078 +2673,1728 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="1">
+        <v>10</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>2</v>
+      </c>
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D71" s="1">
         <v>100</v>
       </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
         <v>4</v>
       </c>
-      <c r="G66">
+      <c r="G71">
         <v>6</v>
       </c>
-      <c r="H66">
+      <c r="H71">
         <v>4</v>
       </c>
-      <c r="I66">
+      <c r="I71">
         <v>4</v>
       </c>
-      <c r="J66">
-        <v>3</v>
-      </c>
-      <c r="K66">
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71">
         <v>5</v>
       </c>
-      <c r="L66">
+      <c r="L71">
         <v>7</v>
       </c>
-      <c r="M66">
-        <v>3</v>
-      </c>
-      <c r="N66">
-        <v>3</v>
-      </c>
-      <c r="O66">
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71">
         <v>4</v>
       </c>
-      <c r="P66">
-        <v>3</v>
-      </c>
-      <c r="Q66">
+      <c r="P71">
+        <v>3</v>
+      </c>
+      <c r="Q71">
         <v>5</v>
       </c>
-      <c r="R66">
+      <c r="R71">
         <v>6</v>
       </c>
-      <c r="S66">
+      <c r="S71">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+      <c r="T71">
+        <v>7</v>
+      </c>
+      <c r="U71">
+        <v>4</v>
+      </c>
+      <c r="V71">
+        <v>3</v>
+      </c>
+      <c r="W71">
+        <v>4</v>
+      </c>
+      <c r="X71">
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>4</v>
+      </c>
+      <c r="Z71">
+        <v>6</v>
+      </c>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>61</v>
-      </c>
-      <c r="D67" s="1">
-        <v>150</v>
-      </c>
-      <c r="E67">
-        <v>5</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
-      <c r="I67">
-        <v>5</v>
-      </c>
-      <c r="J67">
-        <v>4</v>
-      </c>
-      <c r="K67">
-        <v>6</v>
-      </c>
-      <c r="L67">
-        <v>5</v>
-      </c>
-      <c r="M67">
-        <v>3</v>
-      </c>
-      <c r="N67">
-        <v>2</v>
-      </c>
-      <c r="O67">
-        <v>2</v>
-      </c>
-      <c r="P67">
-        <v>3</v>
-      </c>
-      <c r="Q67">
-        <v>4</v>
-      </c>
-      <c r="R67">
-        <v>3</v>
-      </c>
-      <c r="S67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="1">
-        <v>150</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>2</v>
-      </c>
-      <c r="R68">
-        <v>2</v>
-      </c>
-      <c r="S68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="1">
-        <v>150</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-      <c r="R70">
-        <v>2</v>
-      </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="1">
-        <v>150</v>
-      </c>
-      <c r="J71">
-        <v>2</v>
-      </c>
-      <c r="K71">
-        <v>3</v>
-      </c>
-      <c r="L71">
-        <v>2</v>
-      </c>
-      <c r="Q71">
-        <v>2</v>
-      </c>
-      <c r="R71">
-        <v>3</v>
-      </c>
-      <c r="S71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>66</v>
       </c>
       <c r="D72" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>6</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>2</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>3</v>
+      </c>
+      <c r="Y72">
+        <v>4</v>
+      </c>
+      <c r="Z72">
+        <v>2</v>
+      </c>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="1">
+        <v>150</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="X73">
+        <v>3</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>2</v>
+      </c>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="1">
+        <v>170</v>
+      </c>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="1">
+        <v>150</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>2</v>
+      </c>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="1">
+        <v>150</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>4</v>
+      </c>
+      <c r="T76">
+        <v>5</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>2</v>
+      </c>
+      <c r="Z76">
+        <v>3</v>
+      </c>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="1">
+        <v>150</v>
+      </c>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>68</v>
-      </c>
-      <c r="D74" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="1">
-        <v>50</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="S75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="1">
-        <v>50</v>
-      </c>
-      <c r="R76">
-        <v>2</v>
-      </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="1">
-        <v>50</v>
-      </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="R77">
-        <v>4</v>
-      </c>
-      <c r="S77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="1">
-        <v>50</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>4</v>
-      </c>
-      <c r="R78">
-        <v>2</v>
-      </c>
-      <c r="S78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>73</v>
       </c>
       <c r="D79" s="1">
         <v>50</v>
       </c>
-      <c r="S79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>2</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="AE79" s="8"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="1">
+        <v>50</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AE80" s="8"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="8"/>
+      <c r="AH80" s="8"/>
+      <c r="AI80" s="8"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="1">
+        <v>50</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <v>2</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="8"/>
+      <c r="AH81" s="8"/>
+      <c r="AI81" s="8"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="1">
+        <v>50</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="R82">
+        <v>4</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>2</v>
+      </c>
+      <c r="Y82">
+        <v>3</v>
+      </c>
+      <c r="Z82">
+        <v>2</v>
+      </c>
+      <c r="AE82" s="8"/>
+      <c r="AF82" s="8"/>
+      <c r="AG82" s="8"/>
+      <c r="AH82" s="8"/>
+      <c r="AI82" s="8"/>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="1">
+        <v>50</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>4</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83">
+        <v>2</v>
+      </c>
+      <c r="W83">
+        <v>3</v>
+      </c>
+      <c r="X83">
+        <v>4</v>
+      </c>
+      <c r="Y83">
+        <v>2</v>
+      </c>
+      <c r="Z83">
+        <v>4</v>
+      </c>
+      <c r="AE83" s="8"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="8"/>
+      <c r="AH83" s="8"/>
+      <c r="AI83" s="8"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="1">
+        <v>50</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="AE84" s="8"/>
+      <c r="AF84" s="8"/>
+      <c r="AG84" s="8"/>
+      <c r="AH84" s="8"/>
+      <c r="AI84" s="8"/>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>74</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D85" s="1">
         <v>30</v>
       </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="R80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="AE85" s="8"/>
+      <c r="AF85" s="8"/>
+      <c r="AG85" s="8"/>
+      <c r="AH85" s="8"/>
+      <c r="AI85" s="8"/>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D86" s="1">
         <v>20</v>
       </c>
-      <c r="L81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <v>4</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>5</v>
+      </c>
+      <c r="Y86">
+        <v>4</v>
+      </c>
+      <c r="Z86">
+        <v>2</v>
+      </c>
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+      <c r="AI86" s="8"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D89" s="1">
         <v>145</v>
       </c>
-      <c r="E84">
+      <c r="E89">
         <v>4</v>
       </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84">
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
         <v>4</v>
       </c>
-      <c r="H84">
-        <v>3</v>
-      </c>
-      <c r="I84">
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
         <v>4</v>
       </c>
-      <c r="J84">
-        <v>3</v>
-      </c>
-      <c r="K84">
+      <c r="J89">
+        <v>3</v>
+      </c>
+      <c r="K89">
         <v>4</v>
       </c>
-      <c r="L84">
-        <v>3</v>
-      </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>3</v>
-      </c>
-      <c r="O84">
-        <v>2</v>
-      </c>
-      <c r="P84">
-        <v>3</v>
-      </c>
-      <c r="Q84">
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>2</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+      <c r="Q89">
         <v>4</v>
       </c>
-      <c r="R84">
+      <c r="R89">
         <v>4</v>
       </c>
-      <c r="S84">
+      <c r="S89">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>1</v>
+      </c>
+      <c r="X89">
+        <v>3</v>
+      </c>
+      <c r="Y89">
+        <v>2</v>
+      </c>
+      <c r="Z89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>78</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D90" s="1">
         <v>175</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>2</v>
-      </c>
-      <c r="L85">
-        <v>2</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D91" s="1">
         <v>195</v>
       </c>
-      <c r="J86">
-        <v>2</v>
-      </c>
-      <c r="K86">
-        <v>3</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>2</v>
-      </c>
-      <c r="N86">
-        <v>3</v>
-      </c>
-      <c r="O86">
-        <v>2</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
         <v>4</v>
       </c>
-      <c r="R86">
-        <v>3</v>
-      </c>
-      <c r="S86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>3</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>2</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Y91">
+        <v>2</v>
+      </c>
+      <c r="Z91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D92" s="1">
         <v>220</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>2</v>
-      </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-      <c r="S87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D93" s="1">
         <v>195</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="R88">
-        <v>2</v>
-      </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>82</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D94" s="1">
         <v>210</v>
       </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>1</v>
-      </c>
-      <c r="R89">
-        <v>2</v>
-      </c>
-      <c r="S89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="X94">
+        <v>2</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D95" s="1">
         <v>220</v>
       </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D96" s="1">
         <v>220</v>
       </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>2</v>
-      </c>
-      <c r="K91">
-        <v>3</v>
-      </c>
-      <c r="L91">
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
         <v>4</v>
       </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="V96">
+        <v>1</v>
+      </c>
+      <c r="W96">
+        <v>2</v>
+      </c>
+      <c r="X96">
+        <v>2</v>
+      </c>
+      <c r="Z96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>85</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D97" s="1">
         <v>90</v>
       </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="V97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
         <v>86</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D98" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98">
+        <v>2</v>
+      </c>
+      <c r="Y98">
+        <v>2</v>
+      </c>
+      <c r="Z98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>87</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D99" s="1">
         <v>280</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>2</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>2</v>
-      </c>
-      <c r="M94">
-        <v>2</v>
-      </c>
-      <c r="P94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>1</v>
+      </c>
+      <c r="X99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D101" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>90</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D102" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
         <v>91</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D103" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>94</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D106" s="1">
         <v>255</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="K101">
-        <v>2</v>
-      </c>
-      <c r="L101">
-        <v>2</v>
-      </c>
-      <c r="M101">
-        <v>2</v>
-      </c>
-      <c r="Q101">
-        <v>1</v>
-      </c>
-      <c r="R101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>1</v>
+      </c>
+      <c r="X106">
+        <v>1</v>
+      </c>
+      <c r="Y106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
         <v>95</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D107" s="1">
         <v>255</v>
       </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="P102">
-        <v>2</v>
-      </c>
-      <c r="Q102">
-        <v>3</v>
-      </c>
-      <c r="S102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>2</v>
+      </c>
+      <c r="Q107">
+        <v>3</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+      <c r="X107">
+        <v>2</v>
+      </c>
+      <c r="Y107">
+        <v>1</v>
+      </c>
+      <c r="Z107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
         <v>96</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D108" s="1">
         <v>255</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="Q103">
-        <v>1</v>
-      </c>
-      <c r="R103">
-        <v>1</v>
-      </c>
-      <c r="S103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1</v>
+      </c>
+      <c r="W108">
+        <v>2</v>
+      </c>
+      <c r="Y108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>97</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D109" s="1">
         <v>255</v>
       </c>
-      <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="S104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="X109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
         <v>98</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D110" s="1">
         <v>270</v>
       </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
-      <c r="Q105">
-        <v>2</v>
-      </c>
-      <c r="R105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>2</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
         <v>99</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D111" s="1">
         <v>270</v>
       </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="Z111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>100</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D112" s="1">
         <v>270</v>
       </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107">
-        <v>2</v>
-      </c>
-      <c r="L107">
-        <v>2</v>
-      </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="O107">
-        <v>1</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="S107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>1</v>
+      </c>
+      <c r="V112">
+        <v>1</v>
+      </c>
+      <c r="X112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
         <v>101</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D113" s="1">
         <v>270</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-      <c r="R108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
         <v>103</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D115" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
         <v>104</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D116" s="1">
         <v>295</v>
       </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="S111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D117" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
         <v>106</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D118" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>109</v>
       </c>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>110</v>
       </c>
-      <c r="E115">
-        <f>SUMPRODUCT($D$5:$D$113,E5:E113)</f>
+      <c r="E120">
+        <f>SUMPRODUCT($D$5:$D$118,E5:E118)</f>
         <v>7970</v>
       </c>
-      <c r="F115">
-        <f t="shared" ref="F115:O115" si="0">SUMPRODUCT($D$5:$D$113,F5:F113)</f>
+      <c r="F120">
+        <f t="shared" ref="F120:O120" si="0">SUMPRODUCT($D$5:$D$118,F5:F118)</f>
         <v>5820</v>
       </c>
-      <c r="G115">
+      <c r="G120">
         <f t="shared" si="0"/>
         <v>6250</v>
       </c>
-      <c r="H115">
+      <c r="H120">
         <f t="shared" si="0"/>
         <v>6505</v>
       </c>
-      <c r="I115">
+      <c r="I120">
         <f t="shared" si="0"/>
         <v>6295</v>
       </c>
-      <c r="J115">
+      <c r="J120">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
-      <c r="K115">
+      <c r="K120">
         <f t="shared" si="0"/>
         <v>11380</v>
       </c>
-      <c r="L115">
+      <c r="L120">
         <f t="shared" si="0"/>
         <v>12700</v>
       </c>
-      <c r="M115">
+      <c r="M120">
         <f t="shared" si="0"/>
         <v>5610</v>
       </c>
-      <c r="N115">
+      <c r="N120">
         <f t="shared" si="0"/>
-        <v>8120</v>
-      </c>
-      <c r="O115">
+        <v>8140</v>
+      </c>
+      <c r="O120">
         <f t="shared" si="0"/>
         <v>6850</v>
       </c>
-      <c r="P115">
-        <f t="shared" ref="P115:S115" si="1">SUMPRODUCT($D$5:$D$113,P5:P113)</f>
-        <v>5610</v>
-      </c>
-      <c r="Q115">
-        <f>SUMPRODUCT($D$5:$D$113,Q5:Q113)</f>
-        <v>13080</v>
-      </c>
-      <c r="R115">
+      <c r="P120">
+        <f t="shared" ref="P120:S120" si="1">SUMPRODUCT($D$5:$D$118,P5:P118)</f>
+        <v>5630</v>
+      </c>
+      <c r="Q120">
+        <f>SUMPRODUCT($D$5:$D$118,Q5:Q118)</f>
+        <v>13120</v>
+      </c>
+      <c r="R120">
         <f t="shared" si="1"/>
-        <v>16555</v>
-      </c>
-      <c r="S115">
-        <f t="shared" si="1"/>
-        <v>14205</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+        <v>16575</v>
+      </c>
+      <c r="S120">
+        <f>SUMPRODUCT($D$5:$D$118,S5:S118)</f>
+        <v>14245</v>
+      </c>
+      <c r="T120">
+        <f t="shared" ref="T120:AN120" si="2">SUMPRODUCT($D$5:$D$118,T5:T118)</f>
+        <v>13955</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="2"/>
+        <v>5330</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="2"/>
+        <v>5020</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="2"/>
+        <v>5330</v>
+      </c>
+      <c r="X120">
+        <f t="shared" si="2"/>
+        <v>12340</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="2"/>
+        <v>9730</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" si="2"/>
+        <v>11040</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AC120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AF120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AH120">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AI120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AL120">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="AM120">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AN120">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>111</v>
       </c>
-      <c r="E116">
+      <c r="E121">
         <v>0</v>
       </c>
-      <c r="F116">
+      <c r="F121">
         <v>0</v>
       </c>
-      <c r="G116">
+      <c r="G121">
         <v>710</v>
       </c>
-      <c r="H116">
+      <c r="H121">
         <v>2150</v>
       </c>
-      <c r="I116">
+      <c r="I121">
         <v>3265</v>
       </c>
-      <c r="J116">
+      <c r="J121">
         <v>4690</v>
       </c>
-      <c r="K116">
+      <c r="K121">
         <v>3690</v>
       </c>
-      <c r="L116">
+      <c r="L121">
         <v>4250</v>
       </c>
-      <c r="M116">
+      <c r="M121">
         <v>2080</v>
       </c>
-      <c r="N116">
+      <c r="N121">
         <v>3185</v>
       </c>
-      <c r="O116">
+      <c r="O121">
         <v>3220</v>
       </c>
-      <c r="P116">
+      <c r="P121">
         <v>2980</v>
       </c>
-      <c r="Q116">
+      <c r="Q121">
         <v>5825</v>
       </c>
-      <c r="R116">
+      <c r="R121">
         <v>7850</v>
       </c>
-      <c r="S116">
+      <c r="S121">
         <v>4140</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L120">
-        <f>SUM(F115:L115)</f>
+      <c r="T121">
+        <v>3290</v>
+      </c>
+      <c r="U121">
+        <v>1080</v>
+      </c>
+      <c r="V121">
+        <f>255+270</f>
+        <v>525</v>
+      </c>
+      <c r="W121">
+        <v>2350</v>
+      </c>
+      <c r="X121">
+        <v>4080</v>
+      </c>
+      <c r="Y121">
+        <v>3220</v>
+      </c>
+      <c r="Z121">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <f>SUM(F120:L120)</f>
         <v>57490</v>
       </c>
-      <c r="S120">
-        <f>SUM(M115:S115)</f>
-        <v>70030</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L121">
-        <f>L120*4</f>
+      <c r="S125">
+        <f>SUM(M120:S120)</f>
+        <v>70170</v>
+      </c>
+      <c r="Z125">
+        <f>SUM(T120:Z120)</f>
+        <v>62745</v>
+      </c>
+      <c r="AG125">
+        <f>SUM(AA120:AG120)</f>
+        <v>40</v>
+      </c>
+      <c r="AN125">
+        <f>SUM(AH120:AN120)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <f>L125*4</f>
         <v>229960</v>
       </c>
-      <c r="S121">
-        <f>S120*4</f>
-        <v>280120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S122" s="6">
-        <f>S121/L121</f>
-        <v>1.218124891285441</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I123">
-        <f>SUM(F115:I115)</f>
+      <c r="S126">
+        <f>S125*4</f>
+        <v>280680</v>
+      </c>
+      <c r="Z126">
+        <f>Z125*4</f>
+        <v>250980</v>
+      </c>
+      <c r="AG126">
+        <f>AG125*4</f>
+        <v>160</v>
+      </c>
+      <c r="AN126">
+        <f>AN125*4</f>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="S127" s="6">
+        <f>S126/L126</f>
+        <v>1.2205600974082449</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f>SUM(F120:I120)</f>
         <v>24870</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I124">
-        <f>I123/4</f>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f>I128/4</f>
         <v>6217.5</v>
       </c>
     </row>
